--- a/Team-Data/2012-13/11-6-2012-13.xlsx
+++ b/Team-Data/2012-13/11-6-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -765,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>19</v>
@@ -783,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR2" t="n">
         <v>22</v>
@@ -795,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="n">
         <v>1</v>
@@ -807,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-7</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>5</v>
@@ -950,19 +1017,19 @@
         <v>11</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>16</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>9</v>
@@ -980,10 +1047,10 @@
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
@@ -998,10 +1065,10 @@
         <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1129,28 +1196,28 @@
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL4" t="n">
         <v>4</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ4" t="n">
         <v>25</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1168,22 +1235,22 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ4" t="n">
         <v>8</v>
       </c>
       <c r="BA4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB4" t="n">
         <v>8</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-13</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
@@ -1305,10 +1372,10 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1317,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN5" t="n">
         <v>25</v>
@@ -1329,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,10 +1417,10 @@
         <v>2</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>8</v>
@@ -1362,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -1394,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.5</v>
+        <v>35.3</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>78.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="L6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="N6" t="n">
-        <v>0.262</v>
+        <v>0.25</v>
       </c>
       <c r="O6" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="P6" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.768</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="S6" t="n">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U6" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="W6" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.3</v>
+        <v>96.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>13</v>
@@ -1502,49 +1569,49 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>18</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>12</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
@@ -1681,10 +1748,10 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>20</v>
@@ -1720,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
@@ -1729,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -1842,19 +1909,19 @@
         <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1863,19 +1930,19 @@
         <v>2</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" t="n">
         <v>27</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>28</v>
@@ -1887,16 +1954,16 @@
         <v>21</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW8" t="n">
         <v>13</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
@@ -1905,13 +1972,13 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -1940,94 +2007,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.8</v>
+        <v>38</v>
       </c>
       <c r="J9" t="n">
-        <v>89.8</v>
+        <v>89</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.427</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="M9" t="n">
-        <v>23.8</v>
+        <v>21.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.274</v>
+        <v>0.246</v>
       </c>
       <c r="O9" t="n">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="P9" t="n">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.663</v>
+        <v>0.621</v>
       </c>
       <c r="R9" t="n">
-        <v>17.5</v>
+        <v>16.3</v>
       </c>
       <c r="S9" t="n">
-        <v>32</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
-        <v>49.5</v>
+        <v>48.7</v>
       </c>
       <c r="U9" t="n">
-        <v>19.3</v>
+        <v>18</v>
       </c>
       <c r="V9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.3</v>
+        <v>93.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AH9" t="n">
         <v>5</v>
@@ -2036,31 +2103,31 @@
         <v>7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2069,31 +2136,31 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AV9" t="n">
         <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -2122,13 +2189,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2137,79 +2204,79 @@
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="J10" t="n">
-        <v>81.5</v>
+        <v>82.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.414</v>
+        <v>0.403</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="M10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.37</v>
+        <v>0.333</v>
       </c>
       <c r="O10" t="n">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.763</v>
+        <v>0.735</v>
       </c>
       <c r="R10" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="S10" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="U10" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="V10" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W10" t="n">
         <v>6.3</v>
       </c>
       <c r="X10" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
         <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>90.3</v>
+        <v>88</v>
       </c>
       <c r="AC10" t="n">
-        <v>-13.3</v>
+        <v>-13.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
         <v>5</v>
@@ -2218,28 +2285,28 @@
         <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
         <v>14</v>
       </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AR10" t="n">
         <v>19</v>
@@ -2251,28 +2318,28 @@
         <v>29</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>9</v>
       </c>
       <c r="BB10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2397,34 +2464,34 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
         <v>20</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>20</v>
@@ -2433,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>21</v>
@@ -2445,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>26</v>
@@ -2454,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
@@ -2582,7 +2649,7 @@
         <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
         <v>20</v>
@@ -2603,10 +2670,10 @@
         <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2630,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
         <v>15</v>
@@ -2770,22 +2837,22 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR13" t="n">
         <v>3</v>
@@ -2803,13 +2870,13 @@
         <v>30</v>
       </c>
       <c r="AW13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
         <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
@@ -2949,16 +3016,16 @@
         <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>8</v>
       </c>
       <c r="AM14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN14" t="n">
         <v>12</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -3113,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
         <v>24</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>23</v>
       </c>
       <c r="AH15" t="n">
         <v>5</v>
@@ -3134,25 +3201,25 @@
         <v>3</v>
       </c>
       <c r="AL15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>20</v>
@@ -3170,7 +3237,7 @@
         <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
@@ -3185,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>3.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>7</v>
@@ -3313,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3334,19 +3401,19 @@
         <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3361,13 +3428,13 @@
         <v>22</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB16" t="n">
         <v>10</v>
       </c>
       <c r="BC16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -3480,19 +3547,19 @@
         <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="AM17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN17" t="n">
         <v>4</v>
@@ -3510,10 +3577,10 @@
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,31 +3592,31 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>1</v>
       </c>
       <c r="BC17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF18" t="n">
         <v>1</v>
@@ -3674,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>4</v>
@@ -3683,19 +3750,19 @@
         <v>6</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>30</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG19" t="n">
         <v>7</v>
@@ -3853,10 +3920,10 @@
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3865,7 +3932,7 @@
         <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="n">
         <v>23</v>
@@ -3874,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3889,13 +3956,13 @@
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>3</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
@@ -4038,22 +4105,22 @@
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
         <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>20</v>
@@ -4071,22 +4138,22 @@
         <v>14</v>
       </c>
       <c r="AU20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW20" t="n">
         <v>21</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>11</v>
       </c>
       <c r="AY20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>19.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>2</v>
@@ -4217,10 +4284,10 @@
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>10</v>
@@ -4235,7 +4302,7 @@
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4247,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT21" t="n">
         <v>20</v>
@@ -4256,10 +4323,10 @@
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>25</v>
@@ -4271,10 +4338,10 @@
         <v>1</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -4306,100 +4373,100 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="J22" t="n">
-        <v>74.5</v>
+        <v>74.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.456</v>
+        <v>0.451</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>18.3</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>0.411</v>
+        <v>0.438</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8</v>
+        <v>20.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.82</v>
+        <v>0.805</v>
       </c>
       <c r="R22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22" t="n">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="V22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W22" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.3</v>
+        <v>95</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,40 +4475,40 @@
         <v>12</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR22" t="n">
         <v>23</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4456,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC22" t="n">
         <v>14</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -4488,127 +4555,127 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>41</v>
+        <v>43.5</v>
       </c>
       <c r="J23" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="n">
-        <v>0.466</v>
+        <v>0.489</v>
       </c>
       <c r="L23" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N23" t="n">
-        <v>0.489</v>
+        <v>0.538</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="P23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.778</v>
+        <v>0.784</v>
       </c>
       <c r="R23" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>34</v>
       </c>
       <c r="T23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U23" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="V23" t="n">
         <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>15.3</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>103.3</v>
+        <v>108.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.300000000000001</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
         <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ23" t="n">
         <v>11</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS23" t="n">
         <v>5</v>
@@ -4620,28 +4687,28 @@
         <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
@@ -4775,7 +4842,7 @@
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN24" t="n">
         <v>15</v>
@@ -4787,7 +4854,7 @@
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
         <v>4</v>
@@ -4802,13 +4869,13 @@
         <v>28</v>
       </c>
       <c r="AV24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW24" t="n">
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>12</v>
@@ -4817,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -4933,58 +5000,58 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG25" t="n">
         <v>24</v>
       </c>
-      <c r="AG25" t="n">
-        <v>23</v>
-      </c>
       <c r="AH25" t="n">
         <v>5</v>
       </c>
       <c r="AI25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
         <v>28</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO25" t="n">
         <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
         <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>7</v>
       </c>
       <c r="AU25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -4996,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
@@ -5130,16 +5197,16 @@
         <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>16</v>
@@ -5148,13 +5215,13 @@
         <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS26" t="n">
         <v>22</v>
@@ -5163,7 +5230,7 @@
         <v>11</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5178,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
@@ -5187,7 +5254,7 @@
         <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -5297,22 +5364,22 @@
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
         <v>24</v>
       </c>
-      <c r="AG27" t="n">
-        <v>23</v>
-      </c>
       <c r="AH27" t="n">
         <v>1</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="n">
         <v>28</v>
@@ -5333,7 +5400,7 @@
         <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>16</v>
@@ -5351,7 +5418,7 @@
         <v>20</v>
       </c>
       <c r="AW27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
         <v>9</v>
@@ -5363,13 +5430,13 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -5497,31 +5564,31 @@
         <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>17</v>
       </c>
       <c r="AM28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
         <v>21</v>
@@ -5536,13 +5603,13 @@
         <v>9</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
         <v>16</v>
@@ -5551,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -5580,145 +5647,145 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>35</v>
+        <v>36.7</v>
       </c>
       <c r="J29" t="n">
-        <v>86.8</v>
+        <v>87.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.403</v>
+        <v>0.418</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>21.5</v>
+        <v>18.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.411</v>
       </c>
       <c r="O29" t="n">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.82</v>
       </c>
       <c r="R29" t="n">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
       <c r="S29" t="n">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="T29" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="U29" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="Z29" t="n">
         <v>24.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>95.3</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN29" t="n">
         <v>8</v>
       </c>
-      <c r="AN29" t="n">
-        <v>17</v>
-      </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT29" t="n">
         <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>26</v>
@@ -5727,13 +5794,13 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -5843,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG30" t="n">
         <v>24</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>5</v>
@@ -5867,10 +5934,10 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5891,10 +5958,10 @@
         <v>7</v>
       </c>
       <c r="AU30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5903,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5915,7 +5982,7 @@
         <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-6.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
@@ -6046,25 +6113,25 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>3</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
         <v>23</v>
@@ -6091,13 +6158,13 @@
         <v>2</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-6-2012-13</t>
+          <t>2012-11-06</t>
         </is>
       </c>
     </row>
